--- a/data_year/zb/批发和零售业/限额以上零售业企业主要财务指标/按国民经济行业分限额以上零售业企业营业收入.xlsx
+++ b/data_year/zb/批发和零售业/限额以上零售业企业主要财务指标/按国民经济行业分限额以上零售业企业营业收入.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,1393 +543,841 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1129.8</v>
+      </c>
+      <c r="C2" t="n">
+        <v>69.09999999999999</v>
+      </c>
       <c r="D2" t="n">
-        <v>197.9904</v>
+        <v>2041.7</v>
       </c>
       <c r="E2" t="n">
-        <v>201.3649</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+        <v>537.4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4166.7</v>
+      </c>
       <c r="G2" t="n">
-        <v>14.1949</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+        <v>1177.2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1072.3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2955</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1172.3</v>
+      </c>
+      <c r="K2" t="n">
+        <v>7247</v>
+      </c>
       <c r="L2" t="n">
-        <v>208.4049</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+        <v>24755.2</v>
+      </c>
+      <c r="M2" t="n">
+        <v>17004.4</v>
+      </c>
       <c r="N2" t="n">
-        <v>2359.6483</v>
+        <v>7379.8</v>
       </c>
       <c r="O2" t="n">
-        <v>93.40000000000001</v>
-      </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+        <v>1753.3</v>
+      </c>
+      <c r="P2" t="n">
+        <v>14037.6</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1941.4</v>
+      </c>
       <c r="R2" t="n">
-        <v>45.4059</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
+        <v>759</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5977.1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>350.5</v>
+      </c>
+      <c r="U2" t="n">
+        <v>284.8</v>
+      </c>
       <c r="V2" t="n">
-        <v>529.2554</v>
+        <v>981.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1466.5252</v>
+      </c>
+      <c r="C3" t="n">
+        <v>84.2402</v>
+      </c>
       <c r="D3" t="n">
-        <v>263.1353</v>
+        <v>2517.1654</v>
       </c>
       <c r="E3" t="n">
-        <v>216.4035</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
+        <v>587.4558</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5332.7771</v>
+      </c>
       <c r="G3" t="n">
-        <v>17.9727</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>1459.7655</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1624.4124</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3672.8942</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1488.9266</v>
+      </c>
+      <c r="K3" t="n">
+        <v>9741.758</v>
+      </c>
       <c r="L3" t="n">
-        <v>359.6226</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>30253.1317</v>
+      </c>
+      <c r="M3" t="n">
+        <v>19864.3053</v>
+      </c>
       <c r="N3" t="n">
-        <v>2806.1197</v>
+        <v>8897.358899999999</v>
       </c>
       <c r="O3" t="n">
-        <v>94.9913</v>
-      </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+        <v>2294.7657</v>
+      </c>
+      <c r="P3" t="n">
+        <v>16383.3582</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2365.4085</v>
+      </c>
       <c r="R3" t="n">
-        <v>93.36069999999999</v>
-      </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
+        <v>1061.6898</v>
+      </c>
+      <c r="S3" t="n">
+        <v>6637.8339</v>
+      </c>
+      <c r="T3" t="n">
+        <v>472.1478</v>
+      </c>
+      <c r="U3" t="n">
+        <v>471.5653</v>
+      </c>
       <c r="V3" t="n">
-        <v>394.4402</v>
+        <v>1707.0112</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1731.62697</v>
+      </c>
+      <c r="C4" t="n">
+        <v>133.61071</v>
+      </c>
       <c r="D4" t="n">
-        <v>342.431</v>
+        <v>3344.64252</v>
       </c>
       <c r="E4" t="n">
-        <v>226.8613</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
+        <v>754.4229</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5838.38871</v>
+      </c>
       <c r="G4" t="n">
-        <v>16.2501</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1879.18038</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2508.12687</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2910.99055</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1923.15805</v>
+      </c>
+      <c r="K4" t="n">
+        <v>10517.43945</v>
+      </c>
       <c r="L4" t="n">
-        <v>811.0361</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>33977.4038</v>
+      </c>
+      <c r="M4" t="n">
+        <v>22746.76311</v>
+      </c>
       <c r="N4" t="n">
-        <v>3140.6975</v>
+        <v>9923.971890000001</v>
       </c>
       <c r="O4" t="n">
-        <v>96.32689999999999</v>
-      </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
+        <v>2945.45032</v>
+      </c>
+      <c r="P4" t="n">
+        <v>18283.69331</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3115.06665</v>
+      </c>
       <c r="R4" t="n">
-        <v>139.5927</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
+        <v>1403.52201</v>
+      </c>
+      <c r="S4" t="n">
+        <v>7506.11567</v>
+      </c>
+      <c r="T4" t="n">
+        <v>652.81274</v>
+      </c>
+      <c r="U4" t="n">
+        <v>963.2</v>
+      </c>
       <c r="V4" t="n">
-        <v>389.2005</v>
+        <v>2209.83541</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>154.64279</v>
+        <v>2511.9186</v>
       </c>
       <c r="C5" t="n">
-        <v>6.0004</v>
+        <v>179.37416</v>
       </c>
       <c r="D5" t="n">
-        <v>355.29208</v>
+        <v>4188.68018</v>
       </c>
       <c r="E5" t="n">
-        <v>227.18665</v>
+        <v>864.98311</v>
       </c>
       <c r="F5" t="n">
-        <v>928.3656999999999</v>
+        <v>6877.38334</v>
       </c>
       <c r="G5" t="n">
-        <v>324.75836</v>
+        <v>2712.03695</v>
       </c>
       <c r="H5" t="n">
-        <v>88.56256</v>
+        <v>3141.85723</v>
       </c>
       <c r="I5" t="n">
-        <v>686.14613</v>
+        <v>2928.31173</v>
       </c>
       <c r="J5" t="n">
-        <v>94.01541</v>
+        <v>2329.04468</v>
       </c>
       <c r="K5" t="n">
-        <v>412.16874</v>
+        <v>11960.81488</v>
       </c>
       <c r="L5" t="n">
-        <v>1838.8802</v>
+        <v>40036.00509</v>
       </c>
       <c r="M5" t="n">
-        <v>1302.54956</v>
+        <v>27220.48704</v>
       </c>
       <c r="N5" t="n">
-        <v>2399.95133</v>
+        <v>11209.69399</v>
       </c>
       <c r="O5" t="n">
-        <v>184.58062</v>
+        <v>3624.82885</v>
       </c>
       <c r="P5" t="n">
-        <v>4102.79083</v>
+        <v>20603.5197</v>
       </c>
       <c r="Q5" t="n">
-        <v>337.31964</v>
+        <v>3878.09549</v>
       </c>
       <c r="R5" t="n">
-        <v>140.89423</v>
+        <v>1758.78878</v>
       </c>
       <c r="S5" t="n">
-        <v>1571.68758</v>
+        <v>8357.990879999999</v>
       </c>
       <c r="T5" t="n">
-        <v>89.97994</v>
+        <v>738.03385</v>
       </c>
       <c r="U5" t="n">
-        <v>4.5756</v>
+        <v>1381.01234</v>
       </c>
       <c r="V5" t="n">
-        <v>221.49592</v>
+        <v>2528.56162</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>232.5714</v>
+        <v>2744.47013</v>
       </c>
       <c r="C6" t="n">
-        <v>14.91567</v>
+        <v>136.27753</v>
       </c>
       <c r="D6" t="n">
-        <v>657.55552</v>
+        <v>4927.19563</v>
       </c>
       <c r="E6" t="n">
-        <v>300.16881</v>
+        <v>977.76735</v>
       </c>
       <c r="F6" t="n">
-        <v>1572.91125</v>
+        <v>7866.09145</v>
       </c>
       <c r="G6" t="n">
-        <v>427.45224</v>
+        <v>3054.49935</v>
       </c>
       <c r="H6" t="n">
-        <v>203.27149</v>
+        <v>4342.72341</v>
       </c>
       <c r="I6" t="n">
-        <v>1040.63016</v>
+        <v>3115.78201</v>
       </c>
       <c r="J6" t="n">
-        <v>199.23365</v>
+        <v>2449.19577</v>
       </c>
       <c r="K6" t="n">
-        <v>1221.83068</v>
+        <v>13038.76832</v>
       </c>
       <c r="L6" t="n">
-        <v>4490.41662</v>
+        <v>45124.59141</v>
       </c>
       <c r="M6" t="n">
-        <v>3098.21416</v>
+        <v>31130.96012</v>
       </c>
       <c r="N6" t="n">
-        <v>2503.08411</v>
+        <v>11732.28129</v>
       </c>
       <c r="O6" t="n">
-        <v>334.62511</v>
+        <v>4055.57735</v>
       </c>
       <c r="P6" t="n">
-        <v>4861.96326</v>
+        <v>21687.96214</v>
       </c>
       <c r="Q6" t="n">
-        <v>591.15428</v>
+        <v>4555.90897</v>
       </c>
       <c r="R6" t="n">
-        <v>252.30704</v>
+        <v>2237.50922</v>
       </c>
       <c r="S6" t="n">
-        <v>2167.69778</v>
+        <v>8826.044</v>
       </c>
       <c r="T6" t="n">
-        <v>227.14941</v>
+        <v>807.4461</v>
       </c>
       <c r="U6" t="n">
-        <v>8.192780000000001</v>
+        <v>2528.33599</v>
       </c>
       <c r="V6" t="n">
-        <v>305.24997</v>
+        <v>3085.44724</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>239.48963</v>
+        <v>3103.3703</v>
       </c>
       <c r="C7" t="n">
-        <v>14.84857</v>
+        <v>161.5259</v>
       </c>
       <c r="D7" t="n">
-        <v>665.57699</v>
+        <v>5304.5971</v>
       </c>
       <c r="E7" t="n">
-        <v>319.32409</v>
+        <v>1009.126</v>
       </c>
       <c r="F7" t="n">
-        <v>1742.53006</v>
+        <v>8817.1821</v>
       </c>
       <c r="G7" t="n">
-        <v>485.56045</v>
+        <v>2799.0036</v>
       </c>
       <c r="H7" t="n">
-        <v>205.69198</v>
+        <v>4583.2161</v>
       </c>
       <c r="I7" t="n">
-        <v>1162.30843</v>
+        <v>3169.2075</v>
       </c>
       <c r="J7" t="n">
-        <v>205.06732</v>
+        <v>2669.5497</v>
       </c>
       <c r="K7" t="n">
-        <v>1781.45576</v>
+        <v>11348.7712</v>
       </c>
       <c r="L7" t="n">
-        <v>5463.74884</v>
+        <v>44516.9972</v>
       </c>
       <c r="M7" t="n">
-        <v>3539.73159</v>
+        <v>32188.841</v>
       </c>
       <c r="N7" t="n">
-        <v>2889.54389</v>
+        <v>12033.3169</v>
       </c>
       <c r="O7" t="n">
-        <v>333.03887</v>
+        <v>4502.1837</v>
       </c>
       <c r="P7" t="n">
-        <v>5788.3</v>
+        <v>22393.8489</v>
       </c>
       <c r="Q7" t="n">
-        <v>613.7981600000001</v>
+        <v>5025.1837</v>
       </c>
       <c r="R7" t="n">
-        <v>312.3603</v>
+        <v>2020.8217</v>
       </c>
       <c r="S7" t="n">
-        <v>2692.51624</v>
+        <v>9166.2582</v>
       </c>
       <c r="T7" t="n">
-        <v>215.45051</v>
+        <v>1688.5249</v>
       </c>
       <c r="U7" t="n">
-        <v>9.419840000000001</v>
+        <v>2903.296</v>
       </c>
       <c r="V7" t="n">
-        <v>266.91978</v>
+        <v>3432.2069</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278.1584</v>
+        <v>3524.0752</v>
       </c>
       <c r="C8" t="n">
-        <v>29.7678</v>
+        <v>185.8105</v>
       </c>
       <c r="D8" t="n">
-        <v>718.7289</v>
+        <v>6291.7515</v>
       </c>
       <c r="E8" t="n">
-        <v>329.1575</v>
+        <v>1088.9362</v>
       </c>
       <c r="F8" t="n">
-        <v>2086.4108</v>
+        <v>9064.725899999999</v>
       </c>
       <c r="G8" t="n">
-        <v>533.6811</v>
+        <v>3081.3382</v>
       </c>
       <c r="H8" t="n">
-        <v>295.5757</v>
+        <v>6787.5655</v>
       </c>
       <c r="I8" t="n">
-        <v>1395.3589</v>
+        <v>3537.3227</v>
       </c>
       <c r="J8" t="n">
-        <v>253.7956</v>
+        <v>3077.7779</v>
       </c>
       <c r="K8" t="n">
-        <v>2193.7705</v>
+        <v>11901.3633</v>
       </c>
       <c r="L8" t="n">
-        <v>7001.5142</v>
+        <v>50123.6624</v>
       </c>
       <c r="M8" t="n">
-        <v>4622.7806</v>
+        <v>37175.6897</v>
       </c>
       <c r="N8" t="n">
-        <v>3565.1444</v>
+        <v>11946.4312</v>
       </c>
       <c r="O8" t="n">
-        <v>397.0027</v>
+        <v>5014.1414</v>
       </c>
       <c r="P8" t="n">
-        <v>7019.5024</v>
+        <v>22648.5346</v>
       </c>
       <c r="Q8" t="n">
-        <v>654.9875</v>
+        <v>5992.9862</v>
       </c>
       <c r="R8" t="n">
-        <v>385.2088</v>
+        <v>2145.4176</v>
       </c>
       <c r="S8" t="n">
-        <v>3185.3003</v>
+        <v>9474.6759</v>
       </c>
       <c r="T8" t="n">
-        <v>246.754</v>
+        <v>1116.3374</v>
       </c>
       <c r="U8" t="n">
-        <v>26.0948</v>
+        <v>5199.1785</v>
       </c>
       <c r="V8" t="n">
-        <v>340.2412</v>
+        <v>3892.3059</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>393.04187</v>
+        <v>2933.026</v>
       </c>
       <c r="C9" t="n">
-        <v>53.61683</v>
+        <v>241.227</v>
       </c>
       <c r="D9" t="n">
-        <v>844.26073</v>
+        <v>4979.786</v>
       </c>
       <c r="E9" t="n">
-        <v>331.26883</v>
+        <v>1073.238</v>
       </c>
       <c r="F9" t="n">
-        <v>2508.53306</v>
+        <v>8818.174999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>626.47971</v>
+        <v>3056.382</v>
       </c>
       <c r="H9" t="n">
-        <v>330.46855</v>
+        <v>8093.796</v>
       </c>
       <c r="I9" t="n">
-        <v>1690.80537</v>
+        <v>3459.514</v>
       </c>
       <c r="J9" t="n">
-        <v>386.11623</v>
+        <v>3119.006</v>
       </c>
       <c r="K9" t="n">
-        <v>2482.54252</v>
+        <v>11963.521</v>
       </c>
       <c r="L9" t="n">
-        <v>8862.05278</v>
+        <v>49941.78</v>
       </c>
       <c r="M9" t="n">
-        <v>6172.788</v>
+        <v>36976.135</v>
       </c>
       <c r="N9" t="n">
-        <v>4293.85347</v>
+        <v>10526.903</v>
       </c>
       <c r="O9" t="n">
-        <v>579.42807</v>
+        <v>5075.975</v>
       </c>
       <c r="P9" t="n">
-        <v>8390.310320000001</v>
+        <v>20295.935</v>
       </c>
       <c r="Q9" t="n">
-        <v>791.08033</v>
+        <v>4728.771</v>
       </c>
       <c r="R9" t="n">
-        <v>494.57972</v>
+        <v>2286.867</v>
       </c>
       <c r="S9" t="n">
-        <v>3760.05342</v>
+        <v>8779.513000000001</v>
       </c>
       <c r="T9" t="n">
-        <v>252.79429</v>
+        <v>1052.949</v>
       </c>
       <c r="U9" t="n">
-        <v>21.88159</v>
+        <v>6658.925</v>
       </c>
       <c r="V9" t="n">
-        <v>416.72742</v>
+        <v>3820.982</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>576.4642</v>
+        <v>2400.7646</v>
       </c>
       <c r="C10" t="n">
-        <v>36.1217</v>
+        <v>246.2237</v>
       </c>
       <c r="D10" t="n">
-        <v>1286.6942</v>
+        <v>4281.084</v>
       </c>
       <c r="E10" t="n">
-        <v>415.252</v>
+        <v>1174.6218</v>
       </c>
       <c r="F10" t="n">
-        <v>3204.1476</v>
+        <v>8503.5893</v>
       </c>
       <c r="G10" t="n">
-        <v>852.5818</v>
+        <v>2982.8074</v>
       </c>
       <c r="H10" t="n">
-        <v>591.9276</v>
+        <v>10635.1522</v>
       </c>
       <c r="I10" t="n">
-        <v>2165.2041</v>
+        <v>3440.4168</v>
       </c>
       <c r="J10" t="n">
-        <v>738.7098</v>
+        <v>3214.4147</v>
       </c>
       <c r="K10" t="n">
-        <v>5493.9561</v>
+        <v>14211.1728</v>
       </c>
       <c r="L10" t="n">
-        <v>14656.9278</v>
+        <v>51052.6205</v>
       </c>
       <c r="M10" t="n">
-        <v>8852.581</v>
+        <v>35274.9082</v>
       </c>
       <c r="N10" t="n">
-        <v>5284.1918</v>
+        <v>10238.2918</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.8056</v>
+        <v>5310.6897</v>
       </c>
       <c r="P10" t="n">
-        <v>10250.3918</v>
+        <v>19567.9936</v>
       </c>
       <c r="Q10" t="n">
-        <v>1223.6684</v>
+        <v>3825.74</v>
       </c>
       <c r="R10" t="n">
-        <v>633.5443</v>
+        <v>2210.9607</v>
       </c>
       <c r="S10" t="n">
-        <v>4496.9543</v>
+        <v>8528.3899</v>
       </c>
       <c r="T10" t="n">
-        <v>335.7602</v>
+        <v>1158.187</v>
       </c>
       <c r="U10" t="n">
-        <v>75.9948</v>
+        <v>9541.989299999999</v>
       </c>
       <c r="V10" t="n">
-        <v>585.2423</v>
+        <v>3579.1666</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>760.90128</v>
+        <v>2354.5766</v>
       </c>
       <c r="C11" t="n">
-        <v>57.69741</v>
+        <v>240.9946</v>
       </c>
       <c r="D11" t="n">
-        <v>1544.57261</v>
+        <v>4271.614</v>
       </c>
       <c r="E11" t="n">
-        <v>466.67648</v>
+        <v>1217.2148</v>
       </c>
       <c r="F11" t="n">
-        <v>3247.67002</v>
+        <v>7751.1366</v>
       </c>
       <c r="G11" t="n">
-        <v>982.38523</v>
+        <v>3179.6077</v>
       </c>
       <c r="H11" t="n">
-        <v>660.13066</v>
+        <v>15255.5844</v>
       </c>
       <c r="I11" t="n">
-        <v>2220.15955</v>
+        <v>3733.0547</v>
       </c>
       <c r="J11" t="n">
-        <v>876.55944</v>
+        <v>3623.4923</v>
       </c>
       <c r="K11" t="n">
-        <v>5548.2119</v>
+        <v>14326.1476</v>
       </c>
       <c r="L11" t="n">
-        <v>17971.84557</v>
+        <v>53758.858</v>
       </c>
       <c r="M11" t="n">
-        <v>12021.41305</v>
+        <v>37529.8345</v>
       </c>
       <c r="N11" t="n">
-        <v>5898.47574</v>
+        <v>10745.1253</v>
       </c>
       <c r="O11" t="n">
-        <v>1415.95265</v>
+        <v>6008.8186</v>
       </c>
       <c r="P11" t="n">
-        <v>11337.06178</v>
+        <v>21248.6268</v>
       </c>
       <c r="Q11" t="n">
-        <v>1467.67685</v>
+        <v>3730.7415</v>
       </c>
       <c r="R11" t="n">
-        <v>624.69762</v>
+        <v>1165.6954</v>
       </c>
       <c r="S11" t="n">
-        <v>4956.39233</v>
+        <v>9440.2309</v>
       </c>
       <c r="T11" t="n">
-        <v>318.47533</v>
+        <v>1248.6045</v>
       </c>
       <c r="U11" t="n">
-        <v>129.95012</v>
+        <v>13996.5659</v>
       </c>
       <c r="V11" t="n">
-        <v>679.48034</v>
+        <v>3883.3848</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1129.8</v>
+        <v>1788.852</v>
       </c>
       <c r="C12" t="n">
-        <v>69.09999999999999</v>
+        <v>199.6397</v>
       </c>
       <c r="D12" t="n">
-        <v>2041.7</v>
+        <v>4631.9659</v>
       </c>
       <c r="E12" t="n">
-        <v>537.4</v>
+        <v>1258.9109</v>
       </c>
       <c r="F12" t="n">
-        <v>4166.7</v>
+        <v>7651.2256</v>
       </c>
       <c r="G12" t="n">
-        <v>1177.2</v>
+        <v>3114.886</v>
       </c>
       <c r="H12" t="n">
-        <v>1072.3</v>
+        <v>19139.4767</v>
       </c>
       <c r="I12" t="n">
-        <v>2955</v>
+        <v>3564.7886</v>
       </c>
       <c r="J12" t="n">
-        <v>1172.3</v>
+        <v>3523.8982</v>
       </c>
       <c r="K12" t="n">
-        <v>7247</v>
+        <v>12996.8738</v>
       </c>
       <c r="L12" t="n">
-        <v>24755.2</v>
+        <v>52762.1995</v>
       </c>
       <c r="M12" t="n">
-        <v>17004.4</v>
+        <v>38182.4263</v>
       </c>
       <c r="N12" t="n">
-        <v>7379.8</v>
+        <v>9085.85</v>
       </c>
       <c r="O12" t="n">
-        <v>1753.3</v>
+        <v>5803.5877</v>
       </c>
       <c r="P12" t="n">
-        <v>14037.6</v>
+        <v>19974.7689</v>
       </c>
       <c r="Q12" t="n">
-        <v>1941.4</v>
+        <v>4218.5117</v>
       </c>
       <c r="R12" t="n">
-        <v>759</v>
+        <v>1455.2927</v>
       </c>
       <c r="S12" t="n">
-        <v>5977.1</v>
+        <v>9899.2153</v>
       </c>
       <c r="T12" t="n">
-        <v>350.5</v>
+        <v>1261.6925</v>
       </c>
       <c r="U12" t="n">
-        <v>284.8</v>
+        <v>17973.6881</v>
       </c>
       <c r="V12" t="n">
-        <v>981.7</v>
+        <v>4002.3428</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1466.5252</v>
+        <v>1968.4632</v>
       </c>
       <c r="C13" t="n">
-        <v>84.2402</v>
+        <v>184.2687</v>
       </c>
       <c r="D13" t="n">
-        <v>2517.1654</v>
+        <v>4797.7496</v>
       </c>
       <c r="E13" t="n">
-        <v>587.4558</v>
+        <v>1391.7238</v>
       </c>
       <c r="F13" t="n">
-        <v>5332.7771</v>
+        <v>8046.5545</v>
       </c>
       <c r="G13" t="n">
-        <v>1459.7655</v>
+        <v>3547.5395</v>
       </c>
       <c r="H13" t="n">
-        <v>1624.4124</v>
+        <v>22784.0713</v>
       </c>
       <c r="I13" t="n">
-        <v>3672.8942</v>
+        <v>3233.2437</v>
       </c>
       <c r="J13" t="n">
-        <v>1488.9266</v>
+        <v>3915.9829</v>
       </c>
       <c r="K13" t="n">
-        <v>9741.758</v>
+        <v>16995.3501</v>
       </c>
       <c r="L13" t="n">
-        <v>30253.1317</v>
+        <v>60076.3962</v>
       </c>
       <c r="M13" t="n">
-        <v>19864.3053</v>
+        <v>41442.9457</v>
       </c>
       <c r="N13" t="n">
-        <v>8897.358899999999</v>
+        <v>9474.171200000001</v>
       </c>
       <c r="O13" t="n">
-        <v>2294.7657</v>
+        <v>6941.0838</v>
       </c>
       <c r="P13" t="n">
-        <v>16383.3582</v>
+        <v>20423.4026</v>
       </c>
       <c r="Q13" t="n">
-        <v>2365.4085</v>
+        <v>4346.7625</v>
       </c>
       <c r="R13" t="n">
-        <v>1061.6898</v>
+        <v>1967.571</v>
       </c>
       <c r="S13" t="n">
-        <v>6637.8339</v>
+        <v>9853.827300000001</v>
       </c>
       <c r="T13" t="n">
-        <v>472.1478</v>
+        <v>1552.4721</v>
       </c>
       <c r="U13" t="n">
-        <v>471.5653</v>
+        <v>21668.1719</v>
       </c>
       <c r="V13" t="n">
-        <v>1707.0112</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1731.62697</v>
-      </c>
-      <c r="C14" t="n">
-        <v>133.61071</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3344.64252</v>
-      </c>
-      <c r="E14" t="n">
-        <v>754.4229</v>
-      </c>
-      <c r="F14" t="n">
-        <v>5838.38871</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1879.18038</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2508.12687</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2910.99055</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1923.15805</v>
-      </c>
-      <c r="K14" t="n">
-        <v>10517.43945</v>
-      </c>
-      <c r="L14" t="n">
-        <v>33977.4038</v>
-      </c>
-      <c r="M14" t="n">
-        <v>22746.76311</v>
-      </c>
-      <c r="N14" t="n">
-        <v>9923.971890000001</v>
-      </c>
-      <c r="O14" t="n">
-        <v>2945.45032</v>
-      </c>
-      <c r="P14" t="n">
-        <v>18283.69331</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>3115.06665</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1403.52201</v>
-      </c>
-      <c r="S14" t="n">
-        <v>7506.11567</v>
-      </c>
-      <c r="T14" t="n">
-        <v>652.81274</v>
-      </c>
-      <c r="U14" t="n">
-        <v>963.2</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2209.83541</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2511.9186</v>
-      </c>
-      <c r="C15" t="n">
-        <v>179.37416</v>
-      </c>
-      <c r="D15" t="n">
-        <v>4188.68018</v>
-      </c>
-      <c r="E15" t="n">
-        <v>864.98311</v>
-      </c>
-      <c r="F15" t="n">
-        <v>6877.38334</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2712.03695</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3141.85723</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2928.31173</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2329.04468</v>
-      </c>
-      <c r="K15" t="n">
-        <v>11960.81488</v>
-      </c>
-      <c r="L15" t="n">
-        <v>40036.00509</v>
-      </c>
-      <c r="M15" t="n">
-        <v>27220.48704</v>
-      </c>
-      <c r="N15" t="n">
-        <v>11209.69399</v>
-      </c>
-      <c r="O15" t="n">
-        <v>3624.82885</v>
-      </c>
-      <c r="P15" t="n">
-        <v>20603.5197</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>3878.09549</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1758.78878</v>
-      </c>
-      <c r="S15" t="n">
-        <v>8357.990879999999</v>
-      </c>
-      <c r="T15" t="n">
-        <v>738.03385</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1381.01234</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2528.56162</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2744.47013</v>
-      </c>
-      <c r="C16" t="n">
-        <v>136.27753</v>
-      </c>
-      <c r="D16" t="n">
-        <v>4927.19563</v>
-      </c>
-      <c r="E16" t="n">
-        <v>977.76735</v>
-      </c>
-      <c r="F16" t="n">
-        <v>7866.09145</v>
-      </c>
-      <c r="G16" t="n">
-        <v>3054.49935</v>
-      </c>
-      <c r="H16" t="n">
-        <v>4342.72341</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3115.78201</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2449.19577</v>
-      </c>
-      <c r="K16" t="n">
-        <v>13038.76832</v>
-      </c>
-      <c r="L16" t="n">
-        <v>45124.59141</v>
-      </c>
-      <c r="M16" t="n">
-        <v>31130.96012</v>
-      </c>
-      <c r="N16" t="n">
-        <v>11732.28129</v>
-      </c>
-      <c r="O16" t="n">
-        <v>4055.57735</v>
-      </c>
-      <c r="P16" t="n">
-        <v>21687.96214</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>4555.90897</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2237.50922</v>
-      </c>
-      <c r="S16" t="n">
-        <v>8826.044</v>
-      </c>
-      <c r="T16" t="n">
-        <v>807.4461</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2528.33599</v>
-      </c>
-      <c r="V16" t="n">
-        <v>3085.44724</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>3103.3703</v>
-      </c>
-      <c r="C17" t="n">
-        <v>161.5259</v>
-      </c>
-      <c r="D17" t="n">
-        <v>5304.5971</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1009.126</v>
-      </c>
-      <c r="F17" t="n">
-        <v>8817.1821</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2799.0036</v>
-      </c>
-      <c r="H17" t="n">
-        <v>4583.2161</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3169.2075</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2669.5497</v>
-      </c>
-      <c r="K17" t="n">
-        <v>11348.7712</v>
-      </c>
-      <c r="L17" t="n">
-        <v>44516.9972</v>
-      </c>
-      <c r="M17" t="n">
-        <v>32188.841</v>
-      </c>
-      <c r="N17" t="n">
-        <v>12033.3169</v>
-      </c>
-      <c r="O17" t="n">
-        <v>4502.1837</v>
-      </c>
-      <c r="P17" t="n">
-        <v>22393.8489</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>5025.1837</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2020.8217</v>
-      </c>
-      <c r="S17" t="n">
-        <v>9166.2582</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1688.5249</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2903.296</v>
-      </c>
-      <c r="V17" t="n">
-        <v>3432.2069</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>3524.0752</v>
-      </c>
-      <c r="C18" t="n">
-        <v>185.8105</v>
-      </c>
-      <c r="D18" t="n">
-        <v>6291.7515</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1088.9362</v>
-      </c>
-      <c r="F18" t="n">
-        <v>9064.725899999999</v>
-      </c>
-      <c r="G18" t="n">
-        <v>3081.3382</v>
-      </c>
-      <c r="H18" t="n">
-        <v>6787.5655</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3537.3227</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3077.7779</v>
-      </c>
-      <c r="K18" t="n">
-        <v>11901.3633</v>
-      </c>
-      <c r="L18" t="n">
-        <v>50123.6624</v>
-      </c>
-      <c r="M18" t="n">
-        <v>37175.6897</v>
-      </c>
-      <c r="N18" t="n">
-        <v>11946.4312</v>
-      </c>
-      <c r="O18" t="n">
-        <v>5014.1414</v>
-      </c>
-      <c r="P18" t="n">
-        <v>22648.5346</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>5992.9862</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2145.4176</v>
-      </c>
-      <c r="S18" t="n">
-        <v>9474.6759</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1116.3374</v>
-      </c>
-      <c r="U18" t="n">
-        <v>5199.1785</v>
-      </c>
-      <c r="V18" t="n">
-        <v>3892.3059</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>2933.026</v>
-      </c>
-      <c r="C19" t="n">
-        <v>241.227</v>
-      </c>
-      <c r="D19" t="n">
-        <v>4979.786</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1073.238</v>
-      </c>
-      <c r="F19" t="n">
-        <v>8818.174999999999</v>
-      </c>
-      <c r="G19" t="n">
-        <v>3056.382</v>
-      </c>
-      <c r="H19" t="n">
-        <v>8093.796</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3459.514</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3119.006</v>
-      </c>
-      <c r="K19" t="n">
-        <v>11963.521</v>
-      </c>
-      <c r="L19" t="n">
-        <v>49941.78</v>
-      </c>
-      <c r="M19" t="n">
-        <v>36976.135</v>
-      </c>
-      <c r="N19" t="n">
-        <v>10526.903</v>
-      </c>
-      <c r="O19" t="n">
-        <v>5075.975</v>
-      </c>
-      <c r="P19" t="n">
-        <v>20295.935</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>4728.771</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2286.867</v>
-      </c>
-      <c r="S19" t="n">
-        <v>8779.513000000001</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1052.949</v>
-      </c>
-      <c r="U19" t="n">
-        <v>6658.925</v>
-      </c>
-      <c r="V19" t="n">
-        <v>3820.982</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2400.7646</v>
-      </c>
-      <c r="C20" t="n">
-        <v>246.2237</v>
-      </c>
-      <c r="D20" t="n">
-        <v>4281.084</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1174.6218</v>
-      </c>
-      <c r="F20" t="n">
-        <v>8503.5893</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2982.8074</v>
-      </c>
-      <c r="H20" t="n">
-        <v>10635.1522</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3440.4168</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3214.4147</v>
-      </c>
-      <c r="K20" t="n">
-        <v>14211.1728</v>
-      </c>
-      <c r="L20" t="n">
-        <v>51052.6205</v>
-      </c>
-      <c r="M20" t="n">
-        <v>35274.9082</v>
-      </c>
-      <c r="N20" t="n">
-        <v>10238.2918</v>
-      </c>
-      <c r="O20" t="n">
-        <v>5310.6897</v>
-      </c>
-      <c r="P20" t="n">
-        <v>19567.9936</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>3825.74</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2210.9607</v>
-      </c>
-      <c r="S20" t="n">
-        <v>8528.3899</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1158.187</v>
-      </c>
-      <c r="U20" t="n">
-        <v>9541.989299999999</v>
-      </c>
-      <c r="V20" t="n">
-        <v>3579.1666</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2354.5766</v>
-      </c>
-      <c r="C21" t="n">
-        <v>240.9946</v>
-      </c>
-      <c r="D21" t="n">
-        <v>4271.614</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1217.2148</v>
-      </c>
-      <c r="F21" t="n">
-        <v>7751.1366</v>
-      </c>
-      <c r="G21" t="n">
-        <v>3179.6077</v>
-      </c>
-      <c r="H21" t="n">
-        <v>15255.5844</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3733.0547</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3623.4923</v>
-      </c>
-      <c r="K21" t="n">
-        <v>14326.1476</v>
-      </c>
-      <c r="L21" t="n">
-        <v>53758.858</v>
-      </c>
-      <c r="M21" t="n">
-        <v>37529.8345</v>
-      </c>
-      <c r="N21" t="n">
-        <v>10745.1253</v>
-      </c>
-      <c r="O21" t="n">
-        <v>6008.8186</v>
-      </c>
-      <c r="P21" t="n">
-        <v>21248.6268</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3730.7415</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1165.6954</v>
-      </c>
-      <c r="S21" t="n">
-        <v>9440.2309</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1248.6045</v>
-      </c>
-      <c r="U21" t="n">
-        <v>13996.5659</v>
-      </c>
-      <c r="V21" t="n">
-        <v>3883.3848</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1788.852</v>
-      </c>
-      <c r="C22" t="n">
-        <v>199.6397</v>
-      </c>
-      <c r="D22" t="n">
-        <v>4631.9659</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1258.9109</v>
-      </c>
-      <c r="F22" t="n">
-        <v>7651.2256</v>
-      </c>
-      <c r="G22" t="n">
-        <v>3114.886</v>
-      </c>
-      <c r="H22" t="n">
-        <v>19139.4767</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3564.7886</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3523.8982</v>
-      </c>
-      <c r="K22" t="n">
-        <v>12996.8738</v>
-      </c>
-      <c r="L22" t="n">
-        <v>52762.1995</v>
-      </c>
-      <c r="M22" t="n">
-        <v>38182.4263</v>
-      </c>
-      <c r="N22" t="n">
-        <v>9085.85</v>
-      </c>
-      <c r="O22" t="n">
-        <v>5803.5877</v>
-      </c>
-      <c r="P22" t="n">
-        <v>19974.7689</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>4218.5117</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1455.2927</v>
-      </c>
-      <c r="S22" t="n">
-        <v>9899.2153</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1261.6925</v>
-      </c>
-      <c r="U22" t="n">
-        <v>17973.6881</v>
-      </c>
-      <c r="V22" t="n">
-        <v>4002.3428</v>
+        <v>4784.355</v>
       </c>
     </row>
   </sheetData>
